--- a/WBSのひな型.xlsx
+++ b/WBSのひな型.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5FDAA-9E9D-4E9E-9017-7A25E2F9990A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F909C0-F2B6-4D5E-BD0D-3EA0E3DDACD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1665" windowWidth="21600" windowHeight="11295" xr2:uid="{3B4AC93D-F124-47D8-88BE-368F80A06834}"/>
+    <workbookView xWindow="8580" yWindow="1665" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{3B4AC93D-F124-47D8-88BE-368F80A06834}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -338,6 +339,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>353814</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1770C3-832B-4E85-99EB-F0C27B59344C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9955014" cy="8135485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE82B5B-7509-4E2A-A973-D9D8AB997021}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -783,4 +833,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E3A2F2-2534-4987-84CB-D413DE584B3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>